--- a/public/sample_uploads/fund_investors.xlsx
+++ b/public/sample_uploads/fund_investors.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thimm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12C978B-0F44-4614-AD0A-C70B45BCAC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510D6D6E-2FB9-44FB-9758-119E24F45D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,15 +27,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Tags</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
@@ -96,10 +90,16 @@
     <t>Bangalore</t>
   </si>
   <si>
-    <t>Fund</t>
-  </si>
-  <si>
     <t>Tech Fund</t>
+  </si>
+  <si>
+    <t>Name *</t>
+  </si>
+  <si>
+    <t>Category *</t>
+  </si>
+  <si>
+    <t>Fund *</t>
   </si>
 </sst>
 </file>
@@ -140,10 +140,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,7 +461,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.46484375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -475,121 +474,121 @@
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">

--- a/public/sample_uploads/fund_investors.xlsx
+++ b/public/sample_uploads/fund_investors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510D6D6E-2FB9-44FB-9758-119E24F45D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4919C6AC-2B8F-4EC5-9EB2-2B4C1429C2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,6 @@
     <sheet name="Investors" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -33,9 +28,6 @@
     <t>City</t>
   </si>
   <si>
-    <t>Kalaari Capital</t>
-  </si>
-  <si>
     <t>Warm, Cold</t>
   </si>
   <si>
@@ -45,9 +37,6 @@
     <t>Lake Flaviaborough</t>
   </si>
   <si>
-    <t>Tiger Global Management</t>
-  </si>
-  <si>
     <t>$100m+</t>
   </si>
   <si>
@@ -57,36 +46,24 @@
     <t>North Aracelymouth</t>
   </si>
   <si>
-    <t>Blume Ventures</t>
-  </si>
-  <si>
     <t>Cold, $100m+</t>
   </si>
   <si>
     <t>Lake Malik</t>
   </si>
   <si>
-    <t>Accel</t>
-  </si>
-  <si>
     <t>Warm</t>
   </si>
   <si>
     <t>Waiside</t>
   </si>
   <si>
-    <t>Sequoia Capital</t>
-  </si>
-  <si>
     <t>Secondary</t>
   </si>
   <si>
     <t>South Julio</t>
   </si>
   <si>
-    <t>Investor1</t>
-  </si>
-  <si>
     <t>Bangalore</t>
   </si>
   <si>
@@ -100,13 +77,31 @@
   </si>
   <si>
     <t>Fund *</t>
+  </si>
+  <si>
+    <t>Investor 1</t>
+  </si>
+  <si>
+    <t>Investor 2</t>
+  </si>
+  <si>
+    <t>Investor 3</t>
+  </si>
+  <si>
+    <t>Investor 4</t>
+  </si>
+  <si>
+    <t>Investor 5</t>
+  </si>
+  <si>
+    <t>Investor 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -117,6 +112,11 @@
       <name val="Arial"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,17 +136,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{0366E6DE-C243-4067-961E-7E26C5681831}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -461,7 +464,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.46484375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -474,121 +477,121 @@
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">

--- a/public/sample_uploads/fund_investors.xlsx
+++ b/public/sample_uploads/fund_investors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4919C6AC-2B8F-4EC5-9EB2-2B4C1429C2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D06D1E-0370-4696-A58D-4717422D7DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="2880" windowWidth="18000" windowHeight="10433" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Investors" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Tags</t>
   </si>
@@ -95,6 +95,27 @@
   </si>
   <si>
     <t>Investor 6</t>
+  </si>
+  <si>
+    <t>PAN *</t>
+  </si>
+  <si>
+    <t>BUHNXDFEA6</t>
+  </si>
+  <si>
+    <t>JN2GOV5FYI</t>
+  </si>
+  <si>
+    <t>CGKT9ROWB1</t>
+  </si>
+  <si>
+    <t>4I3FNDATK0</t>
+  </si>
+  <si>
+    <t>5AM81UTOQB</t>
+  </si>
+  <si>
+    <t>QNEL3S7Z2J</t>
   </si>
 </sst>
 </file>
@@ -141,10 +162,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,144 +484,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.46484375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="18.06640625" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="1" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="18.06640625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="D9" s="1"/>
+    <row r="8" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="3"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="3"/>
+      <c r="E9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/public/sample_uploads/fund_investors.xlsx
+++ b/public/sample_uploads/fund_investors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D06D1E-0370-4696-A58D-4717422D7DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61CF8D7-F5E3-4CFC-B760-2BA564C9F38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="2880" windowWidth="18000" windowHeight="10433" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Investors" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Tags</t>
   </si>
@@ -116,6 +116,27 @@
   </si>
   <si>
     <t>QNEL3S7Z2J</t>
+  </si>
+  <si>
+    <t>Primary Email</t>
+  </si>
+  <si>
+    <t>emp1@gmail.com</t>
+  </si>
+  <si>
+    <t>emp2@gmail.com</t>
+  </si>
+  <si>
+    <t>emp3@gmail.com</t>
+  </si>
+  <si>
+    <t>emp4@gmail.com</t>
+  </si>
+  <si>
+    <t>emp5@gmail.com</t>
+  </si>
+  <si>
+    <t>emp6@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -162,12 +183,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,25 +503,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E1" sqref="E1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.46484375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="18.06640625" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="4" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -512,17 +531,20 @@
         <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -532,17 +554,20 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -552,17 +577,20 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -572,17 +600,20 @@
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -592,17 +623,20 @@
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -612,17 +646,20 @@
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C7" t="s">
@@ -631,20 +668,21 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="3"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="3"/>
-      <c r="E9" s="1"/>
+    <row r="8" spans="1:7" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="F9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
